--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\177124724\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\177124724\Desktop\Benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03BE3E37-4C7C-4C10-83E0-B1EE53EB739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF58CE16-AFC2-48AB-90BA-6F4063E648F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="11355" windowWidth="29040" windowHeight="15720" xr2:uid="{26C88FE8-A8C4-4D0A-8D51-F6FEB2FD0D57}"/>
   </bookViews>
@@ -41,6 +41,8 @@
     <author>tc={7195D9F2-13BD-43C3-85DE-7530ABCEC9A9}</author>
     <author>tc={D00312EC-C790-459D-8098-09BE940BEBD3}</author>
     <author>tc={51235868-3DAF-412A-A235-9FC294AF8580}</author>
+    <author>tc={D46F0784-303B-431D-BFD2-9229D4F7D633}</author>
+    <author>tc={D0D4A4D3-8443-46D9-A4DA-E4E65E439C66}</author>
   </authors>
   <commentList>
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{7195D9F2-13BD-43C3-85DE-7530ABCEC9A9}">
@@ -67,17 +69,30 @@
     mma</t>
       </text>
     </comment>
+    <comment ref="E7" authorId="3" shapeId="0" xr:uid="{D46F0784-303B-431D-BFD2-9229D4F7D633}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    mma</t>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="4" shapeId="0" xr:uid="{D0D4A4D3-8443-46D9-A4DA-E4E65E439C66}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    mma</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Machine Learning</t>
-  </si>
-  <si>
-    <t>Cloud (POWER)</t>
   </si>
   <si>
     <t>Results:</t>
@@ -108,9 +123,6 @@
   <si>
     <t>First run: Traning: 3.06 s; Inferencing: 0.0005 s
 Second run: Training: 2.82 s; Inferencing:  0.0004 s</t>
-  </si>
-  <si>
-    <t>First run: Training: 135.75 s; 45.56 s</t>
   </si>
   <si>
     <t>Eval output tokens / s: 15.61</t>
@@ -134,13 +146,37 @@
 Config: S1024; 2 socket Scale out
 2 * 16 Cores; 3.1 GHz; 2 TB Memory
 LPAR: SMT = 2; 1 NUMA Node; 8 Cores</t>
+  </si>
+  <si>
+    <t>Eval output tokens / s: 10.15</t>
+  </si>
+  <si>
+    <t>llama 3.1 (8B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud (POWER)
+Config: </t>
+  </si>
+  <si>
+    <t>Eval output tokens / s: 13.69</t>
+  </si>
+  <si>
+    <t>First run: Traning: 4.42 s; Inferencing: 0.0008 s
+Second run: Training: 4.24 s; Inferencing: 0.0007 s</t>
+  </si>
+  <si>
+    <t>First run: Training: 135.75 s; Inferencing 45.56 s</t>
+  </si>
+  <si>
+    <t>First run: Training: 109.81 s; Inferencing 56.9032 s
+Second run: Training: 113.39 s; Inferencing 58.6207 s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,12 +189,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -211,13 +241,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,15 +599,21 @@
   <threadedComment ref="E6" dT="2024-12-16T10:09:22.13" personId="{28CBBD37-BC95-4EAD-94E6-84E8207CBA93}" id="{51235868-3DAF-412A-A235-9FC294AF8580}">
     <text>mma</text>
   </threadedComment>
+  <threadedComment ref="E7" dT="2024-12-16T10:09:22.13" personId="{28CBBD37-BC95-4EAD-94E6-84E8207CBA93}" id="{D46F0784-303B-431D-BFD2-9229D4F7D633}">
+    <text>mma</text>
+  </threadedComment>
+  <threadedComment ref="F7" dT="2024-12-16T10:09:22.13" personId="{28CBBD37-BC95-4EAD-94E6-84E8207CBA93}" id="{D0D4A4D3-8443-46D9-A4DA-E4E65E439C66}">
+    <text>mma</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C354B37-AB77-4557-BAF2-CBC775300372}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -585,152 +623,164 @@
     <col min="3" max="3" width="58.83984375" customWidth="1"/>
     <col min="4" max="4" width="55.83984375" customWidth="1"/>
     <col min="5" max="5" width="62.41796875" customWidth="1"/>
-    <col min="6" max="6" width="21.89453125" customWidth="1"/>
+    <col min="6" max="6" width="44.15625" customWidth="1"/>
     <col min="7" max="7" width="23.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="54.9" x14ac:dyDescent="0.7">
+    </row>
+    <row r="4" spans="1:6" ht="54.9" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="73.2" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" ht="73.2" x14ac:dyDescent="0.7">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+    </row>
+    <row r="7" spans="1:6" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+    </row>
+    <row r="9" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
